--- a/Assets/PSW/Excel/MonsterType.xlsx
+++ b/Assets/PSW/Excel/MonsterType.xlsx
@@ -467,7 +467,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -494,7 +494,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -503,12 +503,12 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -517,12 +517,12 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -531,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/PSW/Excel/MonsterType.xlsx
+++ b/Assets/PSW/Excel/MonsterType.xlsx
@@ -91,15 +91,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weakness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeViewName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>풀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물</t>
+    <t>Grass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -108,22 +124,6 @@
   </si>
   <si>
     <t>불</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weakness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeViewName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +467,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -480,16 +480,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -511,10 +511,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -525,10 +525,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>6</v>
